--- a/adversary ground truth.xlsx
+++ b/adversary ground truth.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f792b653f87a43d5/Desktop/3020 Adv Topics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2161" documentId="8_{30315FC7-6141-443A-BBF4-FB15BE729D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B030A40-F85F-4576-A026-FB727279DA1E}"/>
+  <xr:revisionPtr revIDLastSave="2449" documentId="8_{30315FC7-6141-443A-BBF4-FB15BE729D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8978303B-B0FB-4EF8-8C77-8AD905745679}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="11850" windowHeight="10170" firstSheet="3" activeTab="5" xr2:uid="{01004C1D-AB1A-4293-8453-BD9998A77CDD}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{01004C1D-AB1A-4293-8453-BD9998A77CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="adversary" sheetId="1" r:id="rId1"/>
     <sheet name="techniques" sheetId="5" r:id="rId2"/>
     <sheet name="maps" sheetId="2" r:id="rId3"/>
     <sheet name="comparison" sheetId="4" r:id="rId4"/>
-    <sheet name="results" sheetId="6" r:id="rId5"/>
-    <sheet name="missing score" sheetId="7" r:id="rId6"/>
+    <sheet name="groups" sheetId="8" r:id="rId5"/>
+    <sheet name="results" sheetId="6" r:id="rId6"/>
+    <sheet name="missing score" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="557">
   <si>
     <t>No. #</t>
   </si>
@@ -1268,9 +1269,6 @@
     <t>T1136</t>
   </si>
   <si>
-    <t>T10505.004</t>
-  </si>
-  <si>
     <t>T1059.003</t>
   </si>
   <si>
@@ -1524,9 +1522,6 @@
   </si>
   <si>
     <t>Lazarus Group (93.33%)</t>
-  </si>
-  <si>
-    <t>APT28 or APT29</t>
   </si>
   <si>
     <t>APT28 / APT3 / Threat Group-3390 / Lazarus Group / FIN6 / Patchwork / APT39 / Kimsuky (66.67%)</t>
@@ -1757,12 +1752,80 @@
   <si>
     <t>whodunit</t>
   </si>
+  <si>
+    <t>MITRE ATT&amp;CK Database</t>
+  </si>
+  <si>
+    <t>¨</t>
+  </si>
+  <si>
+    <t>þ</t>
+  </si>
+  <si>
+    <t>Chinese PLA Members</t>
+  </si>
+  <si>
+    <t>APT1</t>
+  </si>
+  <si>
+    <t>SilverTerrier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APT28 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APT29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (85.71%)</t>
+    </r>
+  </si>
+  <si>
+    <t>Andariel</t>
+  </si>
+  <si>
+    <t>APT37</t>
+  </si>
+  <si>
+    <t>APT38</t>
+  </si>
+  <si>
+    <t>Kimsuky</t>
+  </si>
+  <si>
+    <t>Lazarus Group</t>
+  </si>
+  <si>
+    <t>T1505.004</t>
+  </si>
+  <si>
+    <t>Lazarus Group (70%)</t>
+  </si>
+  <si>
+    <t>whodunit (ML output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1822,6 +1885,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1868,7 +1944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,7 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2027,16 +2103,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2045,24 +2115,6 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2100,11 +2152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2112,38 +2164,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2161,6 +2263,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2462,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D246168-EAC8-4404-960E-4099F6966F26}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -2615,7 +2721,7 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="44" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2634,7 +2740,7 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -2768,13 +2874,13 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2804,10 +2910,10 @@
         <v>73</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
@@ -2908,7 +3014,7 @@
         <v>168</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2975,7 +3081,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -3011,7 +3117,7 @@
         <v>169</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="58" x14ac:dyDescent="0.35">
@@ -3241,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB96DE-DCEF-4429-86D9-539ECEDAD517}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3290,124 +3396,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA1" s="37" t="s">
+      <c r="Z1" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AE1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AL1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" s="37" t="s">
+      <c r="AM1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="37" t="s">
+      <c r="AN1" s="36" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3506,7 +3612,7 @@
         <v>247</v>
       </c>
       <c r="AF2" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG2" s="19" t="s">
         <v>199</v>
@@ -3515,7 +3621,7 @@
         <v>220</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AJ2" s="19" t="s">
         <v>226</v>
@@ -3637,13 +3743,13 @@
         <v>212</v>
       </c>
       <c r="AI3" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ3" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK3" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL3" s="19" t="s">
         <v>377</v>
@@ -3747,7 +3853,7 @@
         <v>394</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="AF4" s="19" t="s">
         <v>213</v>
@@ -3762,10 +3868,10 @@
         <v>345</v>
       </c>
       <c r="AJ4" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AK4" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AL4" s="19" t="s">
         <v>378</v>
@@ -3885,7 +3991,7 @@
         <v>350</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL5" s="19" t="s">
         <v>379</v>
@@ -3983,7 +4089,7 @@
         <v>395</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF6" s="19" t="s">
         <v>297</v>
@@ -4001,7 +4107,7 @@
         <v>265</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL6" s="19" t="s">
         <v>380</v>
@@ -4094,10 +4200,10 @@
         <v>357</v>
       </c>
       <c r="AF7" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG7" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AH7" s="19" t="s">
         <v>246</v>
@@ -4106,7 +4212,7 @@
         <v>352</v>
       </c>
       <c r="AJ7" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AK7" s="19" t="s">
         <v>350</v>
@@ -4203,7 +4309,7 @@
       </c>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ8" s="19"/>
       <c r="AK8" s="19" t="s">
@@ -4293,7 +4399,7 @@
       </c>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19" t="s">
@@ -4301,7 +4407,7 @@
       </c>
       <c r="AJ9" s="19"/>
       <c r="AK9" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL9" s="19" t="s">
         <v>383</v>
@@ -4381,7 +4487,7 @@
       </c>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19" t="s">
@@ -4701,7 +4807,7 @@
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="19"/>
@@ -4771,7 +4877,7 @@
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="19"/>
@@ -5505,22 +5611,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA45E2D4-51B4-4DE3-96DB-2ECBFCF75511}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:AP49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF46" sqref="AF46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" customWidth="1"/>
-    <col min="10" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.54296875" bestFit="1" customWidth="1"/>
@@ -5530,31 +5637,66 @@
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="B1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="J1" s="54" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="J1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="X1" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AL1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -5603,8 +5745,56 @@
       <c r="T2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>550</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1003.001</v>
       </c>
@@ -5621,8 +5811,20 @@
       <c r="Q3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W3">
+        <v>1110</v>
+      </c>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AK3" s="81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1016.001</v>
       </c>
@@ -5639,8 +5841,27 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W4">
+        <v>1589.001</v>
+      </c>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AK4" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1018</v>
       </c>
@@ -5655,8 +5876,22 @@
       <c r="Q5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W5">
+        <v>1566.002</v>
+      </c>
+      <c r="Z5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AK5" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1021.001</v>
       </c>
@@ -5672,8 +5907,22 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W6">
+        <v>1027</v>
+      </c>
+      <c r="Z6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AK6" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1053.0050000000001</v>
       </c>
@@ -5689,8 +5938,21 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W7">
+        <v>1078</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AK7" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL7" s="11"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1059.001</v>
       </c>
@@ -5698,8 +5960,25 @@
       <c r="I8">
         <v>1566</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W8">
+        <v>1190</v>
+      </c>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AK8" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AO8" s="11"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1070.0039999999999</v>
       </c>
@@ -5717,24 +5996,68 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W9">
+        <v>1133</v>
+      </c>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AK9" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1078.001</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W10">
+        <v>1003.003</v>
+      </c>
+      <c r="X10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AK10" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1090</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="J11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W11">
+        <v>1083</v>
+      </c>
+      <c r="AA11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AK11" s="81" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1098</v>
       </c>
@@ -5742,45 +6065,124 @@
       <c r="C12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W12">
+        <v>1482</v>
+      </c>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AK12" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL12" s="11"/>
+      <c r="AO12" s="11"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1105</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W13">
+        <v>1078.002</v>
+      </c>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AK13" s="81"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1136.001</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W14">
+        <v>1078.0039999999999</v>
+      </c>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1136.002</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="J15" s="11"/>
+      <c r="K15" t="s">
+        <v>109</v>
+      </c>
+      <c r="W15">
+        <v>1213.002</v>
+      </c>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1190</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16">
+        <v>1114.002</v>
+      </c>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1562.001</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="W17">
+        <v>1090.0029999999999</v>
+      </c>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1570</v>
       </c>
@@ -5789,183 +6191,100 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1110</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1589.001</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>1566.002</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1027</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>1078</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1190</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>1133</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>1003.003</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>1083</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>1482</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>1078.002</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1078.0039999999999</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>1213.002</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>1114.002</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>1090.0029999999999</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+    <row r="33" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+    </row>
+    <row r="34" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+    </row>
+    <row r="35" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+    </row>
+    <row r="36" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+    </row>
+    <row r="37" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+    </row>
+    <row r="38" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+    </row>
+    <row r="39" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+    </row>
+    <row r="40" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="80"/>
+    </row>
+    <row r="41" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U41" s="80"/>
+      <c r="V41" s="80"/>
+      <c r="W41" s="80"/>
+    </row>
+    <row r="42" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
+      <c r="W42" s="80"/>
+    </row>
+    <row r="43" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="80"/>
+    </row>
+    <row r="44" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U44" s="80"/>
+      <c r="V44" s="80"/>
+      <c r="W44" s="80"/>
+    </row>
+    <row r="45" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+    </row>
+    <row r="46" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+    </row>
+    <row r="47" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+    </row>
+    <row r="48" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U48" s="80"/>
+      <c r="V48" s="80"/>
+      <c r="W48" s="80"/>
+    </row>
+    <row r="49" spans="21:23" x14ac:dyDescent="0.35">
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:I10">
     <sortCondition ref="I3:I10"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="J1:T1"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="X1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5977,7 +6296,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6011,7 +6330,7 @@
         <v>197</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>131</v>
@@ -6037,7 +6356,7 @@
         <v>257</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>162</v>
@@ -6062,10 +6381,10 @@
         <v>258</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -6083,7 +6402,7 @@
         <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>163</v>
@@ -6174,10 +6493,10 @@
         <v>326</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>442</v>
+        <v>454</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -6196,12 +6515,12 @@
         <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H9" s="55"/>
+        <v>455</v>
+      </c>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -6222,7 +6541,7 @@
         <v>327</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>135</v>
@@ -6237,16 +6556,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>545</v>
       </c>
       <c r="F11" t="s">
         <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -6260,17 +6579,17 @@
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="45" t="s">
         <v>153</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>328</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -6284,15 +6603,15 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="16" t="s">
         <v>329</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -6313,7 +6632,7 @@
         <v>330</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>139</v>
@@ -6337,7 +6656,7 @@
         <v>331</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>167</v>
@@ -6362,7 +6681,7 @@
         <v>332</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>170</v>
@@ -6377,7 +6696,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>333</v>
@@ -6410,7 +6729,7 @@
         <v>334</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -6422,7 +6741,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>160</v>
@@ -6431,7 +6750,7 @@
         <v>335</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>135</v>
@@ -6456,7 +6775,7 @@
         <v>223</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>171</v>
@@ -6475,10 +6794,10 @@
         <v>168</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>140</v>
@@ -6499,10 +6818,10 @@
         <v>133</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>173</v>
@@ -6523,13 +6842,13 @@
         <v>160</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -6547,13 +6866,13 @@
         <v>158</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -6571,10 +6890,10 @@
         <v>158</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>174</v>
@@ -6592,13 +6911,13 @@
         <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -6616,10 +6935,10 @@
         <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>137</v>
@@ -6637,10 +6956,10 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>175</v>
@@ -6658,13 +6977,13 @@
         <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -6682,13 +7001,13 @@
         <v>157</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>450</v>
+        <v>470</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -6703,12 +7022,12 @@
         <v>169</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H31" s="55"/>
+        <v>471</v>
+      </c>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -6722,10 +7041,10 @@
         <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>141</v>
@@ -6746,10 +7065,10 @@
         <v>158</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>142</v>
@@ -6770,13 +7089,13 @@
         <v>159</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -6791,13 +7110,13 @@
         <v>52</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -6813,10 +7132,10 @@
         <v>119</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H36" s="23" t="s">
         <v>143</v>
@@ -6834,13 +7153,13 @@
         <v>169</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -6859,13 +7178,13 @@
         <v>156</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -6904,10 +7223,10 @@
         <v>59</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H40" s="23" t="s">
         <v>144</v>
@@ -6931,12 +7250,12 @@
         <v>158</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H41" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="H41" s="47" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6944,7 +7263,7 @@
       <c r="D42" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="55"/>
+      <c r="H42" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6962,18 +7281,667 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80051D4A-6DB1-4D64-A4FF-BAC4658159B7}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.36328125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="24">
+        <f t="shared" ref="A3:A41" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="24">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="24">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="24">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="24">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="24">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="24">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="24">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="24">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="24">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="49">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFF8393-07C6-4851-98F8-CF98763401A2}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="26" customWidth="1"/>
     <col min="2" max="2" width="21.1796875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" style="66" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.26953125" style="22" customWidth="1"/>
     <col min="5" max="5" width="25.54296875" style="22" customWidth="1"/>
     <col min="6" max="6" width="30.453125" style="23" customWidth="1"/>
@@ -6986,17 +7954,17 @@
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="63" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>197</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>131</v>
+        <v>556</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -7011,14 +7979,14 @@
       <c r="B2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>145</v>
+      <c r="C2" s="67" t="s">
+        <v>547</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>257</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>162</v>
@@ -7032,17 +8000,17 @@
       <c r="B3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="65" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>453</v>
+      <c r="E3" s="79" t="s">
+        <v>452</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -7053,20 +8021,20 @@
       <c r="B4" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="67" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>259</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7074,13 +8042,13 @@
       <c r="B5" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="34" t="s">
         <v>260</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -7095,7 +8063,7 @@
       <c r="B6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="67" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -7116,7 +8084,7 @@
       <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="67" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="34" t="s">
@@ -7137,17 +8105,17 @@
       <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="67" t="s">
         <v>128</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>326</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>442</v>
+        <v>454</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -7158,16 +8126,16 @@
       <c r="B9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="67" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="F9" s="56"/>
+        <v>455</v>
+      </c>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -7177,14 +8145,14 @@
       <c r="B10" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>133</v>
+      <c r="C10" s="67" t="s">
+        <v>128</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>327</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>135</v>
@@ -7198,20 +8166,20 @@
       <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>40</v>
+      <c r="C11" s="67" t="s">
+        <v>546</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>211</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7219,17 +8187,17 @@
       <c r="B12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="64" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>328</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -7240,17 +8208,17 @@
       <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="64" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>329</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -7261,14 +8229,14 @@
       <c r="B14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>97</v>
+      <c r="C14" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>330</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>139</v>
@@ -7282,20 +8250,20 @@
       <c r="B15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="65" t="s">
         <v>168</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>331</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7303,20 +8271,20 @@
       <c r="B16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="64" t="s">
         <v>112</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>332</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7324,8 +8292,8 @@
       <c r="B17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>438</v>
+      <c r="C17" s="64" t="s">
+        <v>437</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>333</v>
@@ -7345,7 +8313,7 @@
       <c r="B18" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="67" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="30" t="s">
@@ -7355,10 +8323,10 @@
         <v>334</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7366,14 +8334,14 @@
       <c r="B19" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>440</v>
+      <c r="C19" s="67" t="s">
+        <v>439</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>335</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>135</v>
@@ -7387,14 +8355,14 @@
       <c r="B20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>481</v>
+      <c r="C20" s="67" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>223</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>451</v>
+        <v>548</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>171</v>
@@ -7408,14 +8376,14 @@
       <c r="B21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="65" t="s">
         <v>168</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>140</v>
@@ -7429,14 +8397,14 @@
       <c r="B22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>173</v>
@@ -7450,17 +8418,17 @@
       <c r="B23" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="65" t="s">
         <v>168</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>466</v>
+        <v>415</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>465</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -7471,17 +8439,17 @@
       <c r="B24" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="64" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -7492,14 +8460,14 @@
       <c r="B25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="65" t="s">
         <v>168</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>174</v>
@@ -7513,17 +8481,17 @@
       <c r="B26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="67" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -7532,22 +8500,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="C27" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="65" t="s">
         <v>168</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7555,14 +8523,14 @@
       <c r="B28" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="67" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>175</v>
@@ -7576,17 +8544,17 @@
       <c r="B29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>42</v>
+      <c r="C29" s="67" t="s">
+        <v>128</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -7597,17 +8565,17 @@
       <c r="B30" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="67" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>450</v>
+        <v>470</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -7618,18 +8586,18 @@
       <c r="B31" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="49" t="s">
-        <v>169</v>
+      <c r="C31" s="67" t="s">
+        <v>95</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7637,16 +8605,16 @@
       <c r="B32" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F32" s="36" t="s">
+      <c r="C32" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7658,14 +8626,14 @@
       <c r="B33" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="64" t="s">
         <v>115</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>142</v>
@@ -7679,20 +8647,20 @@
       <c r="B34" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="65" t="s">
         <v>99</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7700,20 +8668,20 @@
       <c r="B35" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="64" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7721,14 +8689,14 @@
       <c r="B36" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="64" t="s">
         <v>119</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>143</v>
@@ -7742,17 +8710,17 @@
       <c r="B37" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="49" t="s">
-        <v>169</v>
+      <c r="C37" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -7763,20 +8731,20 @@
       <c r="B38" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="65" t="s">
         <v>120</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7784,7 +8752,7 @@
       <c r="B39" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="67" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="30" t="s">
@@ -7805,49 +8773,49 @@
       <c r="B40" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="67" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="57">
+    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>480</v>
-      </c>
-      <c r="F41" s="59" t="s">
+      <c r="D41" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="F41" s="51" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="28" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="60"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7864,12 +8832,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ACA915-263B-4536-8921-A9DBD3016407}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7881,7 +8849,7 @@
     <col min="5" max="5" width="26" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7892,137 +8860,136 @@
         <v>5</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="61">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>145</v>
+      <c r="C2" s="68" t="s">
+        <v>547</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="E2" s="41">
+        <v>491</v>
+      </c>
+      <c r="E2" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="66"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="58"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="E3" s="41">
+        <v>420</v>
+      </c>
+      <c r="E3" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="61">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="57">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E6" s="40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="68"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="33" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E7" s="40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="68"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="33" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="58"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="E6" s="42">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="68"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="E7" s="42">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="61">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="57">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="D9" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="83">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="44" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="58"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="84">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <f>A9+1</f>
         <v>4</v>
@@ -8030,17 +8997,17 @@
       <c r="B11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <v>0.81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="24">
         <f>A11+1</f>
         <v>5</v>
@@ -8048,17 +9015,17 @@
       <c r="B12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="73" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="24">
         <f>A12+1</f>
         <v>6</v>
@@ -8066,166 +9033,166 @@
       <c r="B13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="73" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <v>1.38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="61">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="57">
         <f>A13+1</f>
         <v>7</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="68" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="E14" s="41">
+        <v>499</v>
+      </c>
+      <c r="E14" s="39">
         <v>1.44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="66"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="58"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="E15" s="41">
+        <v>425</v>
+      </c>
+      <c r="E15" s="39">
         <v>1.44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="61">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="57">
         <f>A14+1</f>
         <v>8</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="68" t="s">
         <v>128</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="E16" s="42">
+        <v>504</v>
+      </c>
+      <c r="E16" s="40">
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="68"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="69"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E17" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E19" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="68"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="21" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="E18" s="41">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="E19" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="E20" s="42">
+      <c r="E20" s="40">
         <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="61">
+      <c r="A21" s="57">
         <f>A16+1</f>
         <v>9</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="65" t="s">
-        <v>133</v>
+      <c r="C21" s="68" t="s">
+        <v>128</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="E21" s="41">
+        <v>509</v>
+      </c>
+      <c r="E21" s="39">
         <v>3.36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="69"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E22" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E23" s="39">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="E22" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="21" t="s">
+      <c r="E24" s="39">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="58"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="E23" s="41">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="68"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="E24" s="41">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="62"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="E25" s="41">
+      <c r="E25" s="39">
         <v>4.71</v>
       </c>
     </row>
@@ -8237,13 +9204,13 @@
       <c r="B26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>40</v>
+      <c r="C26" s="73" t="s">
+        <v>546</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="E26" s="41">
+        <v>458</v>
+      </c>
+      <c r="E26" s="39">
         <v>0.92</v>
       </c>
     </row>
@@ -8259,198 +9226,198 @@
         <v>20</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="E27" s="41">
+        <v>459</v>
+      </c>
+      <c r="E27" s="39">
         <v>5.56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="61">
+      <c r="A28" s="57">
         <f>A27+1</f>
         <v>12</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="E28" s="43">
+      <c r="D28" s="85" t="s">
+        <v>460</v>
+      </c>
+      <c r="E28" s="83">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="62"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="46" t="s">
-        <v>541</v>
-      </c>
-      <c r="E29" s="45">
+      <c r="A29" s="58"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="85" t="s">
+        <v>539</v>
+      </c>
+      <c r="E29" s="84">
         <v>0.42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="61">
+      <c r="A30" s="57">
         <f>A28+1</f>
         <v>13</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="65" t="s">
-        <v>97</v>
+      <c r="C30" s="68" t="s">
+        <v>92</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="E30" s="41">
+        <v>512</v>
+      </c>
+      <c r="E30" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="68"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="69"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="E31" s="41">
+        <v>510</v>
+      </c>
+      <c r="E31" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="62"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="66"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="42">
+        <v>511</v>
+      </c>
+      <c r="E32" s="40">
         <v>0.33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="61">
+      <c r="A33" s="57">
         <f>A30+1</f>
         <v>14</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="55" t="s">
         <v>70</v>
       </c>
       <c r="C33" s="70" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="E33" s="41">
+        <v>517</v>
+      </c>
+      <c r="E33" s="39">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="68"/>
-      <c r="B34" s="67"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="71"/>
       <c r="D34" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="E34" s="42">
+        <v>513</v>
+      </c>
+      <c r="E34" s="40">
         <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="68"/>
-      <c r="B35" s="67"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="71"/>
       <c r="D35" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="E35" s="42">
+        <v>514</v>
+      </c>
+      <c r="E35" s="40">
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="68"/>
-      <c r="B36" s="67"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="71"/>
       <c r="D36" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="E36" s="41">
+        <v>515</v>
+      </c>
+      <c r="E36" s="39">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="62"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="72"/>
       <c r="D37" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="E37" s="41">
+        <v>516</v>
+      </c>
+      <c r="E37" s="39">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="61">
+      <c r="A38" s="57">
         <f>A33+1</f>
         <v>15</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="E38" s="43">
+      <c r="D38" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="E38" s="83">
         <v>3.57</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="62"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E39" s="45">
+      <c r="A39" s="58"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="E39" s="84">
         <v>3.38</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="61">
+      <c r="A40" s="57">
         <f>A38+1</f>
         <v>16</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="65" t="s">
-        <v>438</v>
+      <c r="C40" s="75" t="s">
+        <v>437</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="E40" s="41">
+        <v>518</v>
+      </c>
+      <c r="E40" s="39">
         <v>3.36</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="62"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="66"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="E41" s="41">
+        <v>519</v>
+      </c>
+      <c r="E41" s="39">
         <v>3.36</v>
       </c>
     </row>
@@ -8462,7 +9429,7 @@
       <c r="B42" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="73" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="30" t="s">
@@ -8480,42 +9447,42 @@
       <c r="B43" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>440</v>
+      <c r="C43" s="73" t="s">
+        <v>439</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E43" s="41">
+        <v>464</v>
+      </c>
+      <c r="E43" s="39">
         <v>0.36</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="61">
+      <c r="A44" s="57">
         <f>A43+1</f>
         <v>19</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="65" t="s">
-        <v>481</v>
+      <c r="C44" s="68" t="s">
+        <v>45</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="E44" s="41">
+        <v>492</v>
+      </c>
+      <c r="E44" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="62"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="66"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="35" t="s">
-        <v>495</v>
-      </c>
-      <c r="E45" s="42">
+        <v>493</v>
+      </c>
+      <c r="E45" s="40">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -8527,170 +9494,170 @@
       <c r="B46" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="77" t="s">
         <v>168</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="E46" s="41">
+        <v>417</v>
+      </c>
+      <c r="E46" s="39">
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="61">
+    <row r="47" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="57">
         <f>A46+1</f>
         <v>21</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="51" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="39">
         <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="68"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="73"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="E48" s="40">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E49" s="40">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="59"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E50" s="39">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="59"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="E51" s="40">
         <v>1.17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="68"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="E49" s="42">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="E52" s="40">
         <v>1.17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="68"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="E50" s="41">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="68"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="21" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E53" s="40">
         <v>1.17</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="68"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="21" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="58"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E54" s="40">
         <v>1.17</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="68"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="E53" s="42">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="62"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="E54" s="42">
-        <v>1.17</v>
-      </c>
-    </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="61">
+      <c r="A55" s="57">
         <f>A47+1</f>
         <v>22</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="E55" s="39">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="E56" s="39">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E57" s="39">
         <v>1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="68"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="E56" s="41">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="68"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="E57" s="41">
-        <v>1.4</v>
-      </c>
-    </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="68"/>
-      <c r="B58" s="67"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="71"/>
-      <c r="D58" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="E58" s="42">
+      <c r="D58" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="E58" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="62"/>
-      <c r="B59" s="64"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="72"/>
-      <c r="D59" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="E59" s="41">
+      <c r="D59" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="E59" s="39">
         <v>1.8</v>
       </c>
     </row>
@@ -8702,93 +9669,93 @@
       <c r="B60" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="78" t="s">
         <v>102</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="E60" s="41">
+        <v>466</v>
+      </c>
+      <c r="E60" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="61">
+      <c r="A61" s="57">
         <f>A60+1</f>
         <v>24</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C61" s="70" t="s">
         <v>168</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="E61" s="41">
+        <v>421</v>
+      </c>
+      <c r="E61" s="39">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="68"/>
-      <c r="B62" s="67"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="71"/>
       <c r="D62" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="E62" s="42">
+        <v>531</v>
+      </c>
+      <c r="E62" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="62"/>
-      <c r="B63" s="64"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="72"/>
       <c r="D63" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="E63" s="41">
+        <v>535</v>
+      </c>
+      <c r="E63" s="39">
         <v>2.1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="61">
+      <c r="A64" s="57">
         <f>A61+1</f>
         <v>25</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="E64" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="59"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E65" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="68"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="35" t="s">
-        <v>532</v>
-      </c>
-      <c r="E65" s="41">
-        <v>0</v>
-      </c>
-    </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="62"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="60"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="E66" s="41">
+        <v>420</v>
+      </c>
+      <c r="E66" s="39">
         <v>0</v>
       </c>
     </row>
@@ -8798,15 +9765,15 @@
         <v>26</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="C67" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67" s="77" t="s">
         <v>168</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="E67" s="41">
+        <v>468</v>
+      </c>
+      <c r="E67" s="39">
         <v>3.69</v>
       </c>
     </row>
@@ -8818,13 +9785,13 @@
       <c r="B68" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="73" t="s">
         <v>84</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="E68" s="41">
+        <v>469</v>
+      </c>
+      <c r="E68" s="39">
         <v>3.88</v>
       </c>
     </row>
@@ -8836,13 +9803,13 @@
       <c r="B69" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="29" t="s">
-        <v>42</v>
+      <c r="C69" s="73" t="s">
+        <v>128</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E69" s="41">
+        <v>422</v>
+      </c>
+      <c r="E69" s="39">
         <v>4.87</v>
       </c>
     </row>
@@ -8854,13 +9821,13 @@
       <c r="B70" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="73" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="E70" s="41">
+        <v>470</v>
+      </c>
+      <c r="E70" s="39">
         <v>6</v>
       </c>
     </row>
@@ -8872,13 +9839,13 @@
       <c r="B71" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="47" t="s">
-        <v>169</v>
+      <c r="C71" s="73" t="s">
+        <v>95</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="E71" s="41">
+        <v>471</v>
+      </c>
+      <c r="E71" s="39">
         <v>1.75</v>
       </c>
     </row>
@@ -8891,114 +9858,114 @@
         <v>48</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="E72" s="41">
-        <v>0.78</v>
+        <v>553</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="E72" s="39">
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="61">
+      <c r="A73" s="57">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="75" t="s">
         <v>115</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="E73" s="41">
+        <v>522</v>
+      </c>
+      <c r="E73" s="39">
         <v>1.17</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="62"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="66"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="76"/>
       <c r="D74" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="E74" s="42">
+        <v>526</v>
+      </c>
+      <c r="E74" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="61">
+      <c r="A75" s="57">
         <f>A73+1</f>
         <v>33</v>
       </c>
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="70" t="s">
         <v>99</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="E75" s="42">
+        <v>421</v>
+      </c>
+      <c r="E75" s="40">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="68"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="69"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E76" s="40">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="59"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="E77" s="39">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="59"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="E78" s="39">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="59"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="E76" s="42">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="68"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="E77" s="41">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="68"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="21" t="s">
+      <c r="E79" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="58"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="E78" s="41">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="68"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="E79" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="62"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="E80" s="41">
+      <c r="E80" s="39">
         <v>3.1</v>
       </c>
     </row>
@@ -9010,13 +9977,13 @@
       <c r="B81" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="78" t="s">
         <v>52</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="E81" s="41">
+        <v>475</v>
+      </c>
+      <c r="E81" s="39">
         <v>0</v>
       </c>
     </row>
@@ -9028,13 +9995,13 @@
       <c r="B82" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="78" t="s">
         <v>119</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="E82" s="41">
+        <v>476</v>
+      </c>
+      <c r="E82" s="39">
         <v>3.33</v>
       </c>
     </row>
@@ -9046,13 +10013,13 @@
       <c r="B83" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="47" t="s">
-        <v>169</v>
+      <c r="C83" s="77" t="s">
+        <v>120</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="E83" s="41">
+        <v>430</v>
+      </c>
+      <c r="E83" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9064,13 +10031,13 @@
       <c r="B84" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="77" t="s">
         <v>120</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E84" s="41">
+        <v>431</v>
+      </c>
+      <c r="E84" s="39">
         <v>1.57</v>
       </c>
     </row>
@@ -9082,7 +10049,7 @@
       <c r="B85" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="73" t="s">
         <v>85</v>
       </c>
       <c r="D85" s="30" t="s">
@@ -9093,69 +10060,92 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="61">
+      <c r="A86" s="57">
         <f>A85+1</f>
         <v>39</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B86" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="59" t="s">
+      <c r="C86" s="68" t="s">
         <v>59</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>528</v>
-      </c>
-      <c r="E86" s="41">
+        <v>526</v>
+      </c>
+      <c r="E86" s="39">
         <v>1.33</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="62"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="60"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="69"/>
       <c r="D87" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="E87" s="51">
+        <v>527</v>
+      </c>
+      <c r="E87" s="43">
         <v>0.83</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="57">
+      <c r="A88" s="49">
         <f>A86+1</f>
         <v>40</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C88" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D88" s="56" t="s">
-        <v>480</v>
-      </c>
-      <c r="E88" s="74">
+      <c r="D88" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="E88" s="53">
         <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="57"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="39" t="s">
+      <c r="A89" s="49"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="56"/>
-      <c r="E89" s="75"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A64:A66"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -9172,6 +10162,12 @@
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="A47:A54"/>
@@ -9182,35 +10178,6 @@
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
